--- a/medicine/Psychotrope/Journée_internationale_de_la_bière/Journée_internationale_de_la_bière.xlsx
+++ b/medicine/Psychotrope/Journée_internationale_de_la_bière/Journée_internationale_de_la_bière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_internationale_de_la_bi%C3%A8re</t>
+          <t>Journée_internationale_de_la_bière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La journée internationale de la bière est une fête qui se déroule dans le monde entier tous les ans chaque premier vendredi d'août et qui a été créée en 2007 par un groupe d'amis de Santa Cruz en Californie, Evan Hamilton, Aaron Araki, Mathieu Fernandes Richard[1] et à leur tête Jesse Avshalomov qui se décrit comme un stratège SEO (optimisation pour les moteurs de recherche) et un entrepreneur[2]. 
-Fête à l'origine locale, les quatre amis de Santa Cruz ayant convaincu la direction de leur bar préféré de tenir une fête en l’honneur de tout ce qui touche à la bière, l'initiative a eu lieu pour la première fois le 5 août 2008 et s'est propagée à travers 23 pays et 138 villes en 2011[3].
+La journée internationale de la bière est une fête qui se déroule dans le monde entier tous les ans chaque premier vendredi d'août et qui a été créée en 2007 par un groupe d'amis de Santa Cruz en Californie, Evan Hamilton, Aaron Araki, Mathieu Fernandes Richard et à leur tête Jesse Avshalomov qui se décrit comme un stratège SEO (optimisation pour les moteurs de recherche) et un entrepreneur. 
+Fête à l'origine locale, les quatre amis de Santa Cruz ayant convaincu la direction de leur bar préféré de tenir une fête en l’honneur de tout ce qui touche à la bière, l'initiative a eu lieu pour la première fois le 5 août 2008 et s'est propagée à travers 23 pays et 138 villes en 2011.
 </t>
         </is>
       </c>
